--- a/Results/Table_3.xlsx
+++ b/Results/Table_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-Alotaibi\Documents\R Projects\TTI-AsthmaIR\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380E890-4E2D-4A78-8466-2958A8AA4D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255"/>
+    <workbookView xWindow="15276" yWindow="3744" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +131,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +143,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,6 +190,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,6 +242,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,20 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D10"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
@@ -410,13 +441,13 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="1">
-        <v>132622.06313683401</v>
+        <v>132643.90259411329</v>
       </c>
       <c r="D2">
         <v>17.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -424,13 +455,13 @@
         <v>#N/A</v>
       </c>
       <c r="C3" s="1">
-        <v>13845.407771141076</v>
+        <v>13848.317991206073</v>
       </c>
       <c r="D3">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -438,13 +469,13 @@
         <v>#N/A</v>
       </c>
       <c r="C4" s="1">
-        <v>9283.0318127649753</v>
+        <v>9284.5334103479945</v>
       </c>
       <c r="D4">
         <v>13.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -452,13 +483,13 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1">
-        <v>109493.62355292798</v>
+        <v>109511.0511925592</v>
       </c>
       <c r="D5">
         <v>20.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
@@ -466,13 +497,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5739.3165246921099</v>
+        <v>5740.3580004620526</v>
       </c>
       <c r="D6">
         <v>20.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="e">
         <v>#N/A</v>
       </c>
@@ -480,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>24802.710902105995</v>
+        <v>24807.243343738122</v>
       </c>
       <c r="D7">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
         <v>#N/A</v>
       </c>
@@ -494,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>32346.252048300146</v>
+        <v>32352.087319831586</v>
       </c>
       <c r="D8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -508,13 +539,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>37589.731012978074</v>
+        <v>37595.732117752814</v>
       </c>
       <c r="D9">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
         <v>#N/A</v>
       </c>
@@ -522,13 +553,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>32116.572239371599</v>
+        <v>32120.997452340147</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
@@ -536,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>27.480409386114303</v>
+        <v>27.484359988560563</v>
       </c>
       <c r="D11">
         <v>18.8</v>
@@ -544,5 +575,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Table_3.xlsx
+++ b/Results/Table_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380E890-4E2D-4A78-8466-2958A8AA4D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5E4BF7-098A-4D8B-9543-42DFB33ADBF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15276" yWindow="3744" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3972" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -441,10 +444,10 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="1">
-        <v>132643.90259411329</v>
+        <v>132828.73762661038</v>
       </c>
       <c r="D2">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,7 +458,7 @@
         <v>#N/A</v>
       </c>
       <c r="C3" s="1">
-        <v>13848.317991206073</v>
+        <v>13951.401747330559</v>
       </c>
       <c r="D3">
         <v>9.8000000000000007</v>
@@ -469,10 +472,10 @@
         <v>#N/A</v>
       </c>
       <c r="C4" s="1">
-        <v>9284.5334103479945</v>
+        <v>9295.8637336234424</v>
       </c>
       <c r="D4">
-        <v>13.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -483,7 +486,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1">
-        <v>109511.0511925592</v>
+        <v>109581.47214565639</v>
       </c>
       <c r="D5">
         <v>20.3</v>
@@ -497,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5740.3580004620526</v>
+        <v>5834.0514826449216</v>
       </c>
       <c r="D6">
         <v>20.8</v>
@@ -511,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>24807.243343738122</v>
+        <v>24905.501190896346</v>
       </c>
       <c r="D7">
         <v>18.600000000000001</v>
@@ -525,10 +528,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>32352.087319831586</v>
+        <v>32369.069340874357</v>
       </c>
       <c r="D8">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>37595.732117752814</v>
+        <v>37559.356664277228</v>
       </c>
       <c r="D9">
-        <v>16.899999999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>32120.997452340147</v>
+        <v>32133.228773388055</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -567,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>27.484359988560563</v>
+        <v>27.530174529478874</v>
       </c>
       <c r="D11">
-        <v>18.8</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Table_3.xlsx
+++ b/Results/Table_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5E4BF7-098A-4D8B-9543-42DFB33ADBF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2606A-9FA3-4718-928D-BCDD380733EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3972" windowWidth="10548" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
